--- a/hw/B板/QCD_PowerBank_001B_V04_20180403.xlsx
+++ b/hw/B板/QCD_PowerBank_001B_V04_20180403.xlsx
@@ -184,10 +184,6 @@
     <t>10R</t>
   </si>
   <si>
-    <t>R21 R23</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>10K/1%</t>
   </si>
   <si>
@@ -381,6 +377,10 @@
   </si>
   <si>
     <t>MOS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>R21</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -757,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -772,34 +772,34 @@
   <sheetData>
     <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -807,16 +807,16 @@
     </row>
     <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -825,16 +825,16 @@
     </row>
     <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -843,16 +843,16 @@
     </row>
     <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -861,16 +861,16 @@
     </row>
     <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -879,7 +879,7 @@
     </row>
     <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>48</v>
@@ -888,16 +888,16 @@
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="E8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>42</v>
@@ -915,7 +915,7 @@
     </row>
     <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>43</v>
@@ -933,16 +933,16 @@
     </row>
     <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -951,16 +951,16 @@
     </row>
     <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -969,7 +969,7 @@
     </row>
     <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>40</v>
@@ -987,16 +987,16 @@
     </row>
     <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -1005,16 +1005,16 @@
     </row>
     <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>41</v>
@@ -1041,7 +1041,7 @@
     </row>
     <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>10</v>
@@ -1059,7 +1059,7 @@
     </row>
     <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>8</v>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>1</v>
@@ -1095,10 +1095,10 @@
     </row>
     <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>3</v>
@@ -1113,7 +1113,7 @@
     </row>
     <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>5</v>
@@ -1131,7 +1131,7 @@
     </row>
     <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>14</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>11</v>
@@ -1167,13 +1167,13 @@
     </row>
     <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>34</v>
@@ -1185,7 +1185,7 @@
     </row>
     <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>35</v>
@@ -1203,7 +1203,7 @@
     </row>
     <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>21</v>
@@ -1221,7 +1221,7 @@
     </row>
     <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>26</v>
@@ -1239,7 +1239,7 @@
     </row>
     <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>18</v>
@@ -1257,10 +1257,10 @@
     </row>
     <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>38</v>
@@ -1275,7 +1275,7 @@
     </row>
     <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>24</v>
@@ -1293,7 +1293,7 @@
     </row>
     <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
@@ -1309,7 +1309,7 @@
     </row>
     <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
@@ -1325,11 +1325,11 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>33</v>
@@ -1341,16 +1341,16 @@
     </row>
     <row r="34" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E34" s="1">
         <v>5</v>
@@ -1359,16 +1359,16 @@
     </row>
     <row r="35" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E35" s="1">
         <v>5</v>
@@ -1377,16 +1377,16 @@
     </row>
     <row r="36" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E36" s="1">
         <v>10</v>
